--- a/MEDIA/_ 1102        _301_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 1102        _301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 1102        _301_2020-10-13~2020-10-15)</t>
+          <t>森邦(股)會計科目餘額明細(_ 1102        _301_2020-11-30~2020-11-30)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>35394338</v>
+        <v>27961450</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>暫收-周和泰 代尋2萬                   </t>
+          <t>匯陳妍淑-支付11-1772蔡秋玲費用申請         </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-32957</v>
       </c>
       <c r="G4" t="n">
-        <v>35414338</v>
+        <v>27928493</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>111683</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>高雄苓雅                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>歐力士11月份租金(共6台車)               </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-218400</v>
       </c>
       <c r="G5" t="n">
-        <v>35420338</v>
+        <v>27710093</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>111703</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000708</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>暫收-大甲日南店 張雅惠 工程款$261480       </t>
+          <t>和運11月份租金(共9台車)                </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>261480</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-313100</v>
       </c>
       <c r="G6" t="n">
-        <v>35681818</v>
+        <v>27396993</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>111703</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10906台北展NO.117-蕭惠文-北市光復 工程款   </t>
+          <t>順益11月份租金(共1台車)-續租1年           </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>249740</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-31100</v>
       </c>
       <c r="G7" t="n">
-        <v>35931558</v>
+        <v>27365893</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109995</t>
+          <t>111703</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>付109.10康特-雙顯POS機              </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1499315</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-16000</v>
       </c>
       <c r="G8" t="n">
-        <v>37430873</v>
+        <v>27349893</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>111946</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,38 +642,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>樹林日新                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>付商邦出售四門冰箱                     </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27840</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-16115</v>
       </c>
       <c r="G9" t="n">
-        <v>37458713</v>
+        <v>27333778</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>111946</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000738</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>堤諾林口店                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>回轉11/30#8-信格(迪呈)11月應付款,暫不付    </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13656</v>
+        <v>149780</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>37472369</v>
+        <v>27483558</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112104</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4000023</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,38 +724,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>堤諾長庚                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>暫收-新竹中山 工程款(POS機) $52600      </t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30147</v>
+        <v>52600</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>37502516</v>
+        <v>27536158</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112124</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4000024</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蘇澳中山                                    </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>10910月台北展NO.89-陳儷文 代尋2萬元      </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20928</v>
+        <v>20000</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>37523444</v>
+        <v>27556158</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112169</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000406</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>八德中正	                                   </t>
+          <t>瑞技企業有限公司                                </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29238</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-31770</v>
       </c>
       <c r="G13" t="n">
-        <v>37552682</v>
+        <v>27524388</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000830</t>
+          <t>100095</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>三重仁義                                    </t>
+          <t>福爾豐科技有限公司                               </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28033</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-137470</v>
       </c>
       <c r="G14" t="n">
-        <v>37580715</v>
+        <v>27386918</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000405</t>
+          <t>100441</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>北市濟南	                                   </t>
+          <t>一次性廠商(開發票)                              </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29406</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-2675718</v>
       </c>
       <c r="G15" t="n">
-        <v>37610121</v>
+        <v>24711200</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000816</t>
+          <t>799999</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹽行仁愛	                                   </t>
+          <t>立璨股份有限公司                                </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20500</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-918720</v>
       </c>
       <c r="G16" t="n">
-        <v>37630621</v>
+        <v>23792480</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000833</t>
+          <t>100804</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>崙背建國                                    </t>
+          <t>緯彩印製事業有限公司(利茂)                          </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>40034</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-34305</v>
       </c>
       <c r="G17" t="n">
-        <v>37670655</v>
+        <v>23758175</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000790</t>
+          <t>100715</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中壢中原	                                   </t>
+          <t>倫特股份有限公司                                </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>92002</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-39503</v>
       </c>
       <c r="G18" t="n">
-        <v>37762657</v>
+        <v>23718672</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000917</t>
+          <t>100409</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>新店耕莘                                    </t>
+          <t>良羑有限公司                                  </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-15720</v>
       </c>
       <c r="G19" t="n">
-        <v>37792657</v>
+        <v>23702952</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000603</t>
+          <t>100407</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>南崁奉化                                    </t>
+          <t>健豪印刷事業股份有限公司                            </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11208</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-111001</v>
       </c>
       <c r="G20" t="n">
-        <v>37803865</v>
+        <v>23591951</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000822</t>
+          <t>100256</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>斗六慶生	                                   </t>
+          <t>創捷國際有限公司                                </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12613</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-2490</v>
       </c>
       <c r="G21" t="n">
-        <v>37816478</v>
+        <v>23589461</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000912</t>
+          <t>100820</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>永和永利	                                   </t>
+          <t>花都商業有限公司                                </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3195</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-30124</v>
       </c>
       <c r="G22" t="n">
-        <v>37819673</v>
+        <v>23559337</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000954</t>
+          <t>100101</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中壢九和                                    </t>
+          <t>合盛室內設計工程有限公司                            </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29985</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-1461255</v>
       </c>
       <c r="G23" t="n">
-        <v>37849658</v>
+        <v>22098082</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000742</t>
+          <t>100114</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中壢環東中山                                  </t>
+          <t>茂德興業股份有限公司                              </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6005</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-116879</v>
       </c>
       <c r="G24" t="n">
-        <v>37855663</v>
+        <v>21981203</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000817</t>
+          <t>100071</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>華毅金機械有限公司                               </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12117</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-263363</v>
       </c>
       <c r="G25" t="n">
-        <v>37867780</v>
+        <v>21717840</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>100119</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>東勢中山                                    </t>
+          <t>名肯膠業有限公司                                </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12860</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-7026</v>
       </c>
       <c r="G26" t="n">
-        <v>37880640</v>
+        <v>21710814</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000290</t>
+          <t>100073</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>沙鹿北勢東	                                  </t>
+          <t>團昱股份有限公司                                </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>15583</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>-480765</v>
       </c>
       <c r="G27" t="n">
-        <v>37896223</v>
+        <v>21230049</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000835</t>
+          <t>100367</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>民雄文化                                    </t>
+          <t>詠新創意廣告(仟亦廣告)                            </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-54955</v>
       </c>
       <c r="G28" t="n">
-        <v>37931223</v>
+        <v>21175094</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000854</t>
+          <t>100768</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>花蓮中山                                    </t>
+          <t>大於展覽設計                                  </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18234</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-398970</v>
       </c>
       <c r="G29" t="n">
-        <v>37949457</v>
+        <v>20776124</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000882</t>
+          <t>100766</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>新竹鐵道                                    </t>
+          <t>迪呈企業有限公司(信格)                            </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>11720</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>-149780</v>
       </c>
       <c r="G30" t="n">
-        <v>37961177</v>
+        <v>20626344</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000525</t>
+          <t>100674</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>金門金城                                    </t>
+          <t>錡隆事業有限公司                                </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>53380</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-15630</v>
       </c>
       <c r="G31" t="n">
-        <v>38014557</v>
+        <v>20610714</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000191</t>
+          <t>100170</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>虎尾復興                                    </t>
+          <t>大晉企業(大雄廣告)                              </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36206</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-1468739</v>
       </c>
       <c r="G32" t="n">
-        <v>38050763</v>
+        <v>19141975</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000594</t>
+          <t>100735</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>永和竹林                                    </t>
+          <t>太盛餐飲事業有限公司                              </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>20086</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-882252</v>
       </c>
       <c r="G33" t="n">
-        <v>38070849</v>
+        <v>18259723</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000573</t>
+          <t>100361</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>員林北門	                                   </t>
+          <t>青崴企業社                                   </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25109</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-6900</v>
       </c>
       <c r="G34" t="n">
-        <v>38095958</v>
+        <v>18252823</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000897</t>
+          <t>100161</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>桃園中正長春	                                 </t>
+          <t>鴻億有限公司                                  </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25853</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-86070</v>
       </c>
       <c r="G35" t="n">
-        <v>38121811</v>
+        <v>18166753</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000925</t>
+          <t>100120</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>員林建國                                    </t>
+          <t>寬友股份有限公司                                </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>15124</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>-34610</v>
       </c>
       <c r="G36" t="n">
-        <v>38136935</v>
+        <v>18132143</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000648</t>
+          <t>100142</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>楊梅青山                                    </t>
+          <t>康特健康科技股份有限公司                            </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19148</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-421970</v>
       </c>
       <c r="G37" t="n">
-        <v>38156083</v>
+        <v>17710173</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000887</t>
+          <t>1008102</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,38 +1831,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>廣鴻壓克力(原廣大)                              </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10906台北展NO.125-蘇炳文-大里內新 3萬    </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-49985</v>
       </c>
       <c r="G38" t="n">
-        <v>38186083</v>
+        <v>17660188</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100729</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,38 +1872,38 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>彥帝板金有限公司                                </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1397400</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-1068055</v>
       </c>
       <c r="G39" t="n">
-        <v>39583483</v>
+        <v>16592133</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>110040</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100299</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中和環球	                                   </t>
+          <t>御瀧影像事業有限公司                              </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-46239</v>
       </c>
       <c r="G40" t="n">
-        <v>39623483</v>
+        <v>16545894</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000846</t>
+          <t>100777</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中和環球	                                   </t>
+          <t>恒昌餐具有限公司                                </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>22331</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-2159</v>
       </c>
       <c r="G41" t="n">
-        <v>39645814</v>
+        <v>16543735</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000846</t>
+          <t>100551</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>北市光復	                                   </t>
+          <t>愛惠浦科技股份有限公司                             </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>46432</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>-233640</v>
       </c>
       <c r="G42" t="n">
-        <v>39692246</v>
+        <v>16310095</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000952</t>
+          <t>100801</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>堤諾台南崇學                                  </t>
+          <t>愛理企業有限公司                                </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>42999</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-9735</v>
       </c>
       <c r="G43" t="n">
-        <v>39735245</v>
+        <v>16300360</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4000018</t>
+          <t>100070</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>虎尾林森	                                   </t>
+          <t>揚森工程行                                   </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2086,29 +2086,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>9526</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-2888435</v>
       </c>
       <c r="G44" t="n">
-        <v>39744771</v>
+        <v>13411925</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1000964</t>
+          <t>100309</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>彰化旭光	                                   </t>
+          <t>新洲全球股份有限公司                              </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2127,29 +2127,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27296</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>-6271</v>
       </c>
       <c r="G45" t="n">
-        <v>39772067</v>
+        <v>13405654</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1000947</t>
+          <t>100304</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>土庫新建	                                   </t>
+          <t>智丞桌椅廠                                   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>14562</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1014398</v>
       </c>
       <c r="G46" t="n">
-        <v>39786629</v>
+        <v>12391256</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1000919</t>
+          <t>100771</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>內湖德安                                    </t>
+          <t>欣亮興實業有限公司                               </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,29 +2209,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>21427</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>-13620</v>
       </c>
       <c r="G47" t="n">
-        <v>39808056</v>
+        <v>12377636</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1000211</t>
+          <t>100354</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>北市和平                                    </t>
+          <t>炬嘉股份有限公司                                </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2250,29 +2250,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21635</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>-115687</v>
       </c>
       <c r="G48" t="n">
-        <v>39829691</v>
+        <v>12261949</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112050</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1000414</t>
+          <t>100689</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>羅東中山                                    </t>
+          <t>平鎮廣德                                    </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2291,29 +2291,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>12066</v>
+        <v>26034</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>39841757</v>
+        <v>12287983</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1000387</t>
+          <t>1000764</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>平鎮廣德                                    </t>
+          <t>北市和平                                    </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2332,29 +2332,29 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>19250</v>
+        <v>23367</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>39861007</v>
+        <v>12311350</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1000764</t>
+          <t>1000414</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>北市懷德                                    </t>
+          <t>平鎮廣泰	                                   </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2373,29 +2373,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27907</v>
+        <v>24697</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>39888914</v>
+        <v>12336047</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1000349</t>
+          <t>1000937</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>汐止復興                                    </t>
+          <t>堤諾莊敬                                    </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2414,29 +2414,29 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>14487</v>
+        <v>259681</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>39903401</v>
+        <v>12595728</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1000285</t>
+          <t>4000002</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>花蓮東華	                                   </t>
+          <t>堤諾濟南                                    </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2455,29 +2455,29 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28640</v>
+        <v>294029</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>39932041</v>
+        <v>12889757</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1000950</t>
+          <t>4000003</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>楊梅校前	                                   </t>
+          <t>竹北嘉興	                                   </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2496,29 +2496,29 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>19096</v>
+        <v>19592</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>39951137</v>
+        <v>12909349</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1000939</t>
+          <t>1000938</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>台中遼寧	                                   </t>
+          <t>羅東成功                                    </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2537,29 +2537,29 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37524</v>
+        <v>29442</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>39988661</v>
+        <v>12938791</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1000870</t>
+          <t>1000317</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>基隆新豐	                                   </t>
+          <t>堤諾士林中正	                                 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2578,29 +2578,29 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41417</v>
+        <v>275006</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>40030078</v>
+        <v>13213797</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1000841</t>
+          <t>4000020</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>北市忠孝復興                                  </t>
+          <t>瓦薩內科                                    </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2619,29 +2619,29 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51816</v>
+        <v>402504</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>40081894</v>
+        <v>13616301</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1000548</t>
+          <t>2000004</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>北市後港	                                   </t>
+          <t>台中逢甲                                    </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2660,29 +2660,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>22993</v>
+        <v>308725</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>40104887</v>
+        <v>13925026</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1000845</t>
+          <t>1000622</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>台中精科	                                   </t>
+          <t>北市農安                                    </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2701,29 +2701,29 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17927</v>
+        <v>231509</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>40122814</v>
+        <v>14156535</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1000890</t>
+          <t>1000750</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>新莊富國                                    </t>
+          <t>中壢中北                                    </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2742,29 +2742,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10000</v>
+        <v>273484</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>40132814</v>
+        <v>14430019</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1000208</t>
+          <t>1000826</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>梧棲中興	                                   </t>
+          <t>北市杭州                                    </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2783,29 +2783,29 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>24924</v>
+        <v>411650</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>40157738</v>
+        <v>14841669</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1000898</t>
+          <t>1000366</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>竹北三民	                                   </t>
+          <t>竹北台元	                                   </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2824,29 +2824,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21147</v>
+        <v>21013</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>40178885</v>
+        <v>14862682</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1000843</t>
+          <t>1000920</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>台南文南                                    </t>
+          <t>竹東長春	                                   </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2865,29 +2865,29 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29758</v>
+        <v>38553</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>40208643</v>
+        <v>14901235</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1000074</t>
+          <t>1000926</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>汐止工建	                                   </t>
+          <t>北市成都	                                   </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2906,29 +2906,29 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>17061</v>
+        <v>54792</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>40225704</v>
+        <v>14956027</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1000777</t>
+          <t>1000955</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>板橋江翠	                                   </t>
+          <t>永和永利	                                   </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2947,29 +2947,29 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>48894</v>
+        <v>138000</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>40274598</v>
+        <v>15094027</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1000795</t>
+          <t>1000954</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20201014</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中壢九和                                    </t>
+          <t>大里大智	                                   </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2988,29 +2988,29 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16285</v>
+        <v>5142</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>40290883</v>
+        <v>15099169</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>109986</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1000742</t>
+          <t>1000943</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3020,38 +3020,38 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>後龍中山                                    </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>919261</v>
+        <v>32274</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>41210144</v>
+        <v>15131443</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>110107</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000067</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>花壇中正                                    </t>
+          <t>台南文南                                    </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3070,29 +3070,29 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24042</v>
+        <v>22177</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>41234186</v>
+        <v>15153620</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1000382</t>
+          <t>1000074</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3102,38 +3102,38 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>土城永寧	                                   </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>沖-9月份:其他津貼                    </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>17700</v>
       </c>
       <c r="F69" t="n">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>41228186</v>
+        <v>15171320</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>109608</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000935</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3143,38 +3143,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>鹽行仁愛	                                   </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>匯尚藝國際-沖9/30#109933            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="F70" t="n">
-        <v>-14670</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>41213516</v>
+        <v>15194320</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>109935</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000833</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3184,38 +3184,38 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>台東中華                                    </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>匯桃囍-沖9/30#109933              </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>14723</v>
       </c>
       <c r="F71" t="n">
-        <v>-8370</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>41205146</v>
+        <v>15209043</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>109935</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000582</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3225,38 +3225,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>民雄文化                                    </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>匯富美設計-沖9/30#109933            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="F72" t="n">
-        <v>-41970</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>41163176</v>
+        <v>15237043</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>109935</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000854</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>聲寶股份有限公司                                </t>
+          <t>北市敦北                                    </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3275,29 +3275,29 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>12382</v>
       </c>
       <c r="F73" t="n">
-        <v>-107970</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>41055206</v>
+        <v>15249425</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>109949</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>100173</t>
+          <t>1000429</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>宜浦有限公司                                  </t>
+          <t>板橋民族                                    </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3316,29 +3316,29 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>22792</v>
       </c>
       <c r="F74" t="n">
-        <v>-14490</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>41040716</v>
+        <v>15272217</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>109930</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>100268</t>
+          <t>1000153</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>初鹿牧場景觀餐廳                                </t>
+          <t>大雅學府                                    </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3357,29 +3357,29 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>145913</v>
+        <v>16394</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>41186629</v>
+        <v>15288611</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>4000022</t>
+          <t>1000056</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>高雄昌富                                    </t>
+          <t>白河國泰                                    </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3398,29 +3398,29 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>15161</v>
+        <v>13289</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>41201790</v>
+        <v>15301900</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1000262</t>
+          <t>1000536</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>原愷商行                                    </t>
+          <t>北市後港	                                   </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3439,29 +3439,29 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2850</v>
+        <v>25656</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>41204640</v>
+        <v>15327556</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>9000539</t>
+          <t>1000845</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>光泉食品股份有限公司                              </t>
+          <t>板橋三民	                                   </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3480,29 +3480,29 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2058170</v>
+        <v>15579</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>43262810</v>
+        <v>15343135</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>5999872</t>
+          <t>1000936</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>高雄城峰	                                   </t>
+          <t>汐止復興                                    </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3521,29 +3521,29 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>23836</v>
+        <v>17331</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>43286646</v>
+        <v>15360466</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1000880</t>
+          <t>1000285</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中壢南園	                                   </t>
+          <t>北市立農	                                   </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3562,29 +3562,29 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>14344</v>
+        <v>24094</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>43300990</v>
+        <v>15384560</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1000866</t>
+          <t>1000959</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>三重光復                                    </t>
+          <t>土城頂捷                                    </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3603,29 +3603,29 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30144</v>
+        <v>30000</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>43331134</v>
+        <v>15414560</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1000781</t>
+          <t>1000712</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>北市愛國                                    </t>
+          <t>新竹湳雅	                                   </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3644,29 +3644,29 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33154</v>
+        <v>34028</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>43364288</v>
+        <v>15448588</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112094</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1000433</t>
+          <t>1000918</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>神岡昌平	                                   </t>
+          <t>喀漢堡世貿店                                  </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3685,29 +3685,29 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21699</v>
+        <v>277599</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>43385987</v>
+        <v>15726187</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1000931</t>
+          <t>3100001</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3717,38 +3717,38 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>西螺光復                                    </t>
+          <t>台北八德                                    </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30000</v>
+        <v>8700</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>43415987</v>
+        <v>15734887</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112133</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1000282</t>
+          <t>1000202</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3758,38 +3758,38 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>竹北文興                                    </t>
+          <t>大社旗楠                                    </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>22438</v>
+        <v>46824</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>43438425</v>
+        <v>15781711</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112133</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1000903</t>
+          <t>1000595</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3799,38 +3799,38 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>北市南京松江	                                 </t>
+          <t>永康崑山科大                                  </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>43013</v>
+        <v>26000</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>43481438</v>
+        <v>15807711</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112133</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1000914</t>
+          <t>1000455</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3840,38 +3840,38 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>竹東長春	                                   </t>
+          <t>台中南屯                                    </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>102849</v>
+        <v>31105</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>43584287</v>
+        <v>15838816</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112133</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1000926</t>
+          <t>1000014</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3881,38 +3881,38 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>土城永寧	                                   </t>
+          <t>斗六民生                                    </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10626</v>
+        <v>20815</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>43594913</v>
+        <v>15859631</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112133</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1000935</t>
+          <t>1000131</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3922,38 +3922,38 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>北市立農	                                   </t>
+          <t>台中長春                                    </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>100000.1102.301               </t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16796</v>
+        <v>49298</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>43611709</v>
+        <v>15908929</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>112133</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1000959</t>
+          <t>1000264</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>台北八德                                    </t>
+          <t>伸港水尾                                    </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3972,29 +3972,29 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>12000</v>
+        <v>29914</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>43623709</v>
+        <v>15938843</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>110116</t>
+          <t>112133</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1000202</t>
+          <t>1000474</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>宜蘭健康                                    </t>
+          <t>楊梅四維                                    </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4013,29 +4013,29 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>8323</v>
+        <v>19427</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>43632032</v>
+        <v>15958270</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>110116</t>
+          <t>112133</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1000727</t>
+          <t>1000252</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4045,38 +4045,38 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>林口醒吾                                    </t>
+          <t>三重正義南	                                  </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>40882</v>
+        <v>33360</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>43672914</v>
+        <v>15991630</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>110116</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1000099</t>
+          <t>1000962</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4086,38 +4086,38 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>新店建國                                    </t>
+          <t>楠梓翠屏                                    </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>45832</v>
+        <v>35000</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>43718746</v>
+        <v>16026630</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>110116</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1000236</t>
+          <t>1000772</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4127,38 +4127,38 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>新豐新興                                    </t>
+          <t>八德中正	                                   </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26582</v>
+        <v>42587</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>43745328</v>
+        <v>16069217</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>110116</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1000018</t>
+          <t>1000830</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4168,38 +4168,38 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>新竹延平                                    </t>
+          <t>新竹橫山	                                   </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>12400</v>
+        <v>24179</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>43757728</v>
+        <v>16093396</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>110116</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1000255</t>
+          <t>1000844</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>台中永安                                    </t>
+          <t>北市濟南	                                   </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4218,29 +4218,29 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>49000</v>
+        <v>49350</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>43806728</v>
+        <v>16142746</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1000785</t>
+          <t>1000816</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>豐原向陽                                    </t>
+          <t>竹北六家嘉豐	                                 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4259,29 +4259,29 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13153</v>
+        <v>13395</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>43819881</v>
+        <v>16156141</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>110062</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1000256</t>
+          <t>1000927</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4291,31 +4291,72 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>高雄苓雅                                    </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>沖#102256-蘆洲仁愛-陳品璇退保證金5萬       </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="F98" t="n">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>43769881</v>
+        <v>16165641</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>109961</t>
+          <t>112126</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000708</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201130</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>北市延平南                                   </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>50070</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>16215711</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>112126</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1000874</t>
         </is>
       </c>
     </row>
